--- a/Results/Notebook 2 Example 2/Scores/problem_1_instance2_scores.xlsx
+++ b/Results/Notebook 2 Example 2/Scores/problem_1_instance2_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02765880369226517</v>
+        <v>0.01178416625306948</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1742864072131737</v>
+        <v>0.1962658956258756</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09345619230092629</v>
+        <v>0.09240034103935675</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2142942901274149</v>
+        <v>0.2022908011725063</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.3921281457263647</v>
+        <v>0.675461405856044</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1433576769856309</v>
+        <v>0.1324541629393382</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9216425358006975</v>
+        <v>0.9729398810865978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3858089968194216</v>
+        <v>0.4335099445219128</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8409601234793106</v>
+        <v>0.8494076316771882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5211385863533368</v>
+        <v>0.5920963804129344</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4395133492129956</v>
+        <v>0.7088019934232593</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07465348594019967</v>
+        <v>0.07778007816758685</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01187348365783691</v>
+        <v>0.004472704529762268</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2279371023178101</v>
+        <v>0.2338663482666016</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +548,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.111943105591147</v>
+        <v>0.07509490836423421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1459932656993065</v>
+        <v>0.1591592248205764</v>
       </c>
     </row>
     <row r="10">
@@ -561,10 +561,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8710292868246167</v>
+        <v>0.7669162226934052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5559028053795531</v>
+        <v>0.5177064802775271</v>
       </c>
     </row>
   </sheetData>
